--- a/FwaEu.MediCare/DevelopmentData/DosageForms/DosageForms.xlsx
+++ b/FwaEu.MediCare/DevelopmentData/DosageForms/DosageForms.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7490541-AEA9-43F3-AE8B-65957FECA05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCDA8EF-21D1-44BD-A2C2-47CF6C1B3846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Acteurs" sheetId="1" r:id="rId1"/>
+    <sheet name="DosageForms" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Actor.InvariantId?NameString?SubTitle?HandicapAccessibility?Description?EducationCityAction?TargetAgeFrom?TargetAgeTo?Schedules?Keywords?Categories?Activities?Telephone?Mail?Address?PostalCode?City?Website?Instagram?Twitter?Facebook?Youtube?Snapchat?Owner">Acteurs!#REF!</definedName>
+    <definedName name="Actor.InvariantId?NameString?SubTitle?HandicapAccessibility?Description?EducationCityAction?TargetAgeFrom?TargetAgeTo?Schedules?Keywords?Categories?Activities?Telephone?Mail?Address?PostalCode?City?Website?Instagram?Twitter?Facebook?Youtube?Snapchat?Owner">DosageForms!#REF!</definedName>
     <definedName name="Contact.ActorInvariantId?TypeString?Description?DisplayOrder?Value">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Data type:</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Is key:</t>
   </si>
   <si>
-    <t>VRAI</t>
-  </si>
-  <si>
     <t>Search on:</t>
   </si>
   <si>
@@ -61,7 +58,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Nom</t>
+    <t>name</t>
   </si>
   <si>
     <t>amp buv</t>
@@ -304,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +320,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -720,334 +718,374 @@
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13" spans="1:25" ht="18.75">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
     </row>
     <row r="15" spans="1:25">
       <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
     </row>
     <row r="16" spans="1:25">
       <c r="B16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
